--- a/src/main/resources/风险提醒清单Excel.xlsx
+++ b/src/main/resources/风险提醒清单Excel.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="39">
   <si>
     <t>注意事项：
     1、请充分查看风险清单，按照处置建议，填写原因报备。
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>HA56320241011202801</t>
+  </si>
+  <si>
+    <t>已报备</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -1337,7 +1343,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="7" width="31.25" customWidth="1"/>
+    <col min="1" max="7" customWidth="true" width="31.25"/>
   </cols>
   <sheetData>
     <row r="1" ht="40" customHeight="1" spans="1:1">
@@ -1388,7 +1394,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1431,7 +1437,7 @@
         <v>21</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>13</v>
@@ -1454,7 +1460,7 @@
         <v>23</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>13</v>
@@ -1477,7 +1483,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>18</v>

--- a/src/main/resources/风险提醒清单Excel.xlsx
+++ b/src/main/resources/风险提醒清单Excel.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="39">
   <si>
     <t>注意事项：
     1、请充分查看风险清单，按照处置建议，填写原因报备。
